--- a/Data/Diabetes.xlsx
+++ b/Data/Diabetes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nojoud/Desktop/Senior Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nojoud/Desktop/web/HealthDisparites/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861A6923-08F9-B248-B649-5D91ED2B1095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2294135-D678-5742-B165-3C936D94D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1220" windowWidth="19520" windowHeight="16740" xr2:uid="{9D1F250E-69BE-1E43-8298-37ADC6267FBB}"/>
+    <workbookView xWindow="5000" yWindow="1200" windowWidth="19520" windowHeight="16740" xr2:uid="{9D1F250E-69BE-1E43-8298-37ADC6267FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Diabetes</t>
   </si>
   <si>
-    <t>Dyslipdemia</t>
-  </si>
-  <si>
     <t>High_BMI</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>Dyslipidemia</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,22 +496,22 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
